--- a/natmiOut/OldD4/LR-pairs_lrc2p/Bmp4-Bmpr1b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Bmp4-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Bmpr1b</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +531,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.69276406036458</v>
+        <v>6.406955</v>
       </c>
       <c r="H2">
-        <v>5.69276406036458</v>
+        <v>19.220865</v>
       </c>
       <c r="I2">
-        <v>0.3068499321362265</v>
+        <v>0.2800966009992834</v>
       </c>
       <c r="J2">
-        <v>0.3068499321362265</v>
+        <v>0.3266544289500553</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.30157483041766</v>
+        <v>1.467406</v>
       </c>
       <c r="N2">
-        <v>1.30157483041766</v>
+        <v>4.402218</v>
       </c>
       <c r="O2">
-        <v>0.8212598866281821</v>
+        <v>0.8178057326420413</v>
       </c>
       <c r="P2">
-        <v>0.8212598866281821</v>
+        <v>0.8654277364307374</v>
       </c>
       <c r="Q2">
-        <v>7.409558416476778</v>
+        <v>9.401604208729998</v>
       </c>
       <c r="R2">
-        <v>7.409558416476778</v>
+        <v>84.61443787856999</v>
       </c>
       <c r="S2">
-        <v>0.2520035404780627</v>
+        <v>0.2290646059907645</v>
       </c>
       <c r="T2">
-        <v>0.2520035404780627</v>
+        <v>0.2826958030413215</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +590,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.69276406036458</v>
+        <v>6.406955</v>
       </c>
       <c r="H3">
-        <v>5.69276406036458</v>
+        <v>19.220865</v>
       </c>
       <c r="I3">
-        <v>0.3068499321362265</v>
+        <v>0.2800966009992834</v>
       </c>
       <c r="J3">
-        <v>0.3068499321362265</v>
+        <v>0.3266544289500553</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.283276507885846</v>
+        <v>0.030706</v>
       </c>
       <c r="N3">
-        <v>0.283276507885846</v>
+        <v>0.09211800000000001</v>
       </c>
       <c r="O3">
-        <v>0.1787401133718179</v>
+        <v>0.01711288002536893</v>
       </c>
       <c r="P3">
-        <v>0.1787401133718179</v>
+        <v>0.01810938763698815</v>
       </c>
       <c r="Q3">
-        <v>1.612626323238128</v>
+        <v>0.19673196023</v>
       </c>
       <c r="R3">
-        <v>1.612626323238128</v>
+        <v>1.77058764207</v>
       </c>
       <c r="S3">
-        <v>0.05484639165816376</v>
+        <v>0.004793259528414369</v>
       </c>
       <c r="T3">
-        <v>0.05484639165816376</v>
+        <v>0.005915511677195555</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +652,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.67098801247928</v>
+        <v>6.406955</v>
       </c>
       <c r="H4">
-        <v>6.67098801247928</v>
+        <v>19.220865</v>
       </c>
       <c r="I4">
-        <v>0.3595779128038819</v>
+        <v>0.2800966009992834</v>
       </c>
       <c r="J4">
-        <v>0.3595779128038819</v>
+        <v>0.3266544289500553</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.30157483041766</v>
+        <v>0.296209</v>
       </c>
       <c r="N4">
-        <v>1.30157483041766</v>
+        <v>0.592418</v>
       </c>
       <c r="O4">
-        <v>0.8212598866281821</v>
+        <v>0.1650813873325899</v>
       </c>
       <c r="P4">
-        <v>0.8212598866281821</v>
+        <v>0.1164628759322743</v>
       </c>
       <c r="Q4">
-        <v>8.682790091060962</v>
+        <v>1.897797733595</v>
       </c>
       <c r="R4">
-        <v>8.682790091060962</v>
+        <v>11.38678640157</v>
       </c>
       <c r="S4">
-        <v>0.2953069159033144</v>
+        <v>0.0462387354801046</v>
       </c>
       <c r="T4">
-        <v>0.2953069159033144</v>
+        <v>0.0380431142315382</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +714,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.67098801247928</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H5">
-        <v>6.67098801247928</v>
+        <v>20.059353</v>
       </c>
       <c r="I5">
-        <v>0.3595779128038819</v>
+        <v>0.2923154911886005</v>
       </c>
       <c r="J5">
-        <v>0.3595779128038819</v>
+        <v>0.3409043505233807</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.283276507885846</v>
+        <v>1.467406</v>
       </c>
       <c r="N5">
-        <v>0.283276507885846</v>
+        <v>4.402218</v>
       </c>
       <c r="O5">
-        <v>0.1787401133718179</v>
+        <v>0.8178057326420413</v>
       </c>
       <c r="P5">
-        <v>0.1787401133718179</v>
+        <v>0.8654277364307374</v>
       </c>
       <c r="Q5">
-        <v>1.889734188323471</v>
+        <v>9.811738316106</v>
       </c>
       <c r="R5">
-        <v>1.889734188323471</v>
+        <v>88.305644844954</v>
       </c>
       <c r="S5">
-        <v>0.06427099690056751</v>
+        <v>0.2390572844341116</v>
       </c>
       <c r="T5">
-        <v>0.06427099690056751</v>
+        <v>0.2950280804128401</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +776,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.18852206563393</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H6">
-        <v>6.18852206563393</v>
+        <v>20.059353</v>
       </c>
       <c r="I6">
-        <v>0.3335721550598916</v>
+        <v>0.2923154911886005</v>
       </c>
       <c r="J6">
-        <v>0.3335721550598916</v>
+        <v>0.3409043505233807</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.30157483041766</v>
+        <v>0.030706</v>
       </c>
       <c r="N6">
-        <v>1.30157483041766</v>
+        <v>0.09211800000000001</v>
       </c>
       <c r="O6">
-        <v>0.8212598866281821</v>
+        <v>0.01711288002536893</v>
       </c>
       <c r="P6">
-        <v>0.8212598866281821</v>
+        <v>0.01810938763698815</v>
       </c>
       <c r="Q6">
-        <v>8.054824558113429</v>
+        <v>0.205314164406</v>
       </c>
       <c r="R6">
-        <v>8.054824558113429</v>
+        <v>1.847827479654</v>
       </c>
       <c r="S6">
-        <v>0.2739494302468049</v>
+        <v>0.00500235993026731</v>
       </c>
       <c r="T6">
-        <v>0.2739494302468049</v>
+        <v>0.006173569030763584</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +841,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.18852206563393</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H7">
-        <v>6.18852206563393</v>
+        <v>20.059353</v>
       </c>
       <c r="I7">
-        <v>0.3335721550598916</v>
+        <v>0.2923154911886005</v>
       </c>
       <c r="J7">
-        <v>0.3335721550598916</v>
+        <v>0.3409043505233807</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.283276507885846</v>
+        <v>0.296209</v>
       </c>
       <c r="N7">
-        <v>0.283276507885846</v>
+        <v>0.592418</v>
       </c>
       <c r="O7">
-        <v>0.1787401133718179</v>
+        <v>0.1650813873325899</v>
       </c>
       <c r="P7">
-        <v>0.1787401133718179</v>
+        <v>0.1164628759322743</v>
       </c>
       <c r="Q7">
-        <v>1.753062919727282</v>
+        <v>1.980586964259</v>
       </c>
       <c r="R7">
-        <v>1.753062919727282</v>
+        <v>11.883521785554</v>
       </c>
       <c r="S7">
-        <v>0.05962272481308664</v>
+        <v>0.04825584682422164</v>
       </c>
       <c r="T7">
-        <v>0.05962272481308664</v>
+        <v>0.03970270107977703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>9.780684500000001</v>
+      </c>
+      <c r="H8">
+        <v>19.561369</v>
+      </c>
+      <c r="I8">
+        <v>0.4275879078121161</v>
+      </c>
+      <c r="J8">
+        <v>0.332441220526564</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.467406</v>
+      </c>
+      <c r="N8">
+        <v>4.402218</v>
+      </c>
+      <c r="O8">
+        <v>0.8178057326420413</v>
+      </c>
+      <c r="P8">
+        <v>0.8654277364307374</v>
+      </c>
+      <c r="Q8">
+        <v>14.352235119407</v>
+      </c>
+      <c r="R8">
+        <v>86.113410716442</v>
+      </c>
+      <c r="S8">
+        <v>0.3496838422171652</v>
+      </c>
+      <c r="T8">
+        <v>0.2877038529765759</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>9.780684500000001</v>
+      </c>
+      <c r="H9">
+        <v>19.561369</v>
+      </c>
+      <c r="I9">
+        <v>0.4275879078121161</v>
+      </c>
+      <c r="J9">
+        <v>0.332441220526564</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.030706</v>
+      </c>
+      <c r="N9">
+        <v>0.09211800000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.01711288002536893</v>
+      </c>
+      <c r="P9">
+        <v>0.01810938763698815</v>
+      </c>
+      <c r="Q9">
+        <v>0.3003256982570001</v>
+      </c>
+      <c r="R9">
+        <v>1.801954189542</v>
+      </c>
+      <c r="S9">
+        <v>0.007317260566687254</v>
+      </c>
+      <c r="T9">
+        <v>0.006020306929029009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>9.780684500000001</v>
+      </c>
+      <c r="H10">
+        <v>19.561369</v>
+      </c>
+      <c r="I10">
+        <v>0.4275879078121161</v>
+      </c>
+      <c r="J10">
+        <v>0.332441220526564</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.296209</v>
+      </c>
+      <c r="N10">
+        <v>0.592418</v>
+      </c>
+      <c r="O10">
+        <v>0.1650813873325899</v>
+      </c>
+      <c r="P10">
+        <v>0.1164628759322743</v>
+      </c>
+      <c r="Q10">
+        <v>2.8971267750605</v>
+      </c>
+      <c r="R10">
+        <v>11.588507100242</v>
+      </c>
+      <c r="S10">
+        <v>0.07058680502826369</v>
+      </c>
+      <c r="T10">
+        <v>0.03871706062095906</v>
       </c>
     </row>
   </sheetData>
